--- a/example/resultats/Maire 2024/111101060103/111101060103.xlsx
+++ b/example/resultats/Maire 2024/111101060103/111101060103.xlsx
@@ -145,7 +145,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -158,16 +158,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -426,18 +422,18 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -447,16 +443,14 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -465,7 +459,6 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
@@ -587,60 +580,52 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+      <c r="B13" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
